--- a/code/data1.xlsx
+++ b/code/data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 8\TA\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{96358914-A50F-44BD-B864-7D976D622DCD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59BF7B40-8929-4B39-8ED2-10377C660AD6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="6480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2916,8 +2916,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3234,17 +3237,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -3260,8 +3264,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -3277,8 +3281,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -3294,8 +3298,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -3311,8 +3315,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -3328,8 +3332,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -3346,7 +3350,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -3363,7 +3367,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -3379,8 +3383,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3397,7 +3401,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -3414,7 +3418,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -3431,7 +3435,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -3448,7 +3452,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -3465,7 +3469,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -3481,8 +3485,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -3499,7 +3503,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -3515,8 +3519,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -3533,7 +3537,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -3550,7 +3554,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -3566,8 +3570,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -3583,8 +3587,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -3600,8 +3604,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -3618,7 +3622,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -3634,8 +3638,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -3652,7 +3656,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -3669,7 +3673,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -3686,7 +3690,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -3702,8 +3706,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -3719,8 +3723,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -3736,8 +3740,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -3753,8 +3757,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -3771,7 +3775,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -3787,8 +3791,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -3805,7 +3809,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -3821,8 +3825,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -3839,7 +3843,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -3856,7 +3860,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -3872,8 +3876,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -3889,8 +3893,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -3907,7 +3911,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -3924,7 +3928,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -3940,8 +3944,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -3958,7 +3962,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -3974,8 +3978,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -3991,8 +3995,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -4009,7 +4013,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -4026,7 +4030,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -4042,8 +4046,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -4059,8 +4063,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -4076,8 +4080,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -4093,8 +4097,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -4110,8 +4114,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -4128,7 +4132,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -4145,7 +4149,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -4162,7 +4166,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -4179,7 +4183,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -4196,7 +4200,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -4213,7 +4217,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -4229,8 +4233,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -4246,8 +4250,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -4263,8 +4267,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -4280,8 +4284,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -4298,7 +4302,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -4314,8 +4318,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -4331,8 +4335,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -4349,7 +4353,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -4366,7 +4370,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -4383,7 +4387,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -4399,8 +4403,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -4417,7 +4421,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -4434,7 +4438,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -4450,8 +4454,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -4468,7 +4472,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -4485,7 +4489,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -4502,7 +4506,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -4518,8 +4522,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B76">
@@ -4535,8 +4539,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B77">
@@ -4553,7 +4557,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B78">
@@ -4570,7 +4574,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B79">
@@ -4586,8 +4590,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B80">
@@ -4603,8 +4607,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B81">
@@ -4621,7 +4625,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B82">
@@ -4637,8 +4641,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B83">
@@ -4654,8 +4658,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B84">
@@ -4671,8 +4675,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B85">
@@ -4689,7 +4693,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B86">
@@ -4706,7 +4710,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B87">
@@ -4722,8 +4726,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B88">
@@ -4739,8 +4743,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B89">
@@ -4756,8 +4760,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B90">
@@ -4774,7 +4778,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B91">
@@ -4791,7 +4795,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B92">
@@ -4808,7 +4812,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B93">
@@ -4824,8 +4828,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B94">
@@ -4841,8 +4845,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B95">
@@ -4859,7 +4863,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B96">
@@ -4875,8 +4879,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B97">
@@ -4892,8 +4896,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B98">
@@ -4909,8 +4913,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B99">
@@ -4926,8 +4930,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B100">
@@ -4943,8 +4947,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B101">
@@ -4961,7 +4965,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B102">
@@ -4978,7 +4982,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B103">
@@ -4995,7 +4999,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B104">
@@ -5012,7 +5016,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B105">
@@ -5028,8 +5032,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B106">
@@ -5045,8 +5049,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B107">
@@ -5062,8 +5066,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B108">
@@ -5080,7 +5084,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B109">
@@ -5096,8 +5100,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B110">
@@ -5113,8 +5117,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B111">
@@ -5131,7 +5135,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B112">
@@ -5147,8 +5151,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B113">
@@ -5164,8 +5168,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B114">
@@ -5181,8 +5185,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B115">
@@ -5199,7 +5203,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B116">
@@ -5216,7 +5220,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B117">
@@ -5232,8 +5236,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>951</v>
       </c>
       <c r="B118">
@@ -5250,7 +5254,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B119">
@@ -5266,8 +5270,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B120">
@@ -5284,7 +5288,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B121">
@@ -5301,7 +5305,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B122">
@@ -5318,7 +5322,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B123">
@@ -5334,8 +5338,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B124">
@@ -5352,7 +5356,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B125">
@@ -5369,7 +5373,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B126">
@@ -5385,8 +5389,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B127">
@@ -5403,7 +5407,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B128">
@@ -5419,8 +5423,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B129">
@@ -5437,7 +5441,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B130">
@@ -5454,7 +5458,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B131">
@@ -5471,7 +5475,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B132">
@@ -5488,7 +5492,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B133">
@@ -5504,8 +5508,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B134">
@@ -5521,8 +5525,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B135">
@@ -5538,8 +5542,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B136">
@@ -5555,8 +5559,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B137">
@@ -5572,8 +5576,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B138">
@@ -5590,7 +5594,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B139">
@@ -5607,7 +5611,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B140">
@@ -5623,8 +5627,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B141">
@@ -5640,8 +5644,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="142" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B142">
@@ -5658,7 +5662,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B143">
@@ -5675,7 +5679,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B144">
@@ -5692,7 +5696,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B145">
@@ -5709,7 +5713,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B146">
@@ -5726,7 +5730,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B147">
@@ -5743,7 +5747,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B148">
@@ -5760,7 +5764,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B149">
@@ -5776,8 +5780,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B150">
@@ -5793,8 +5797,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B151">
@@ -5811,7 +5815,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B152">
@@ -5828,7 +5832,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B153">
@@ -5844,8 +5848,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B154">
@@ -5862,7 +5866,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B155">
@@ -5878,8 +5882,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B156">
@@ -5896,7 +5900,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B157">
@@ -5913,7 +5917,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B158">
@@ -5930,7 +5934,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B159">
@@ -5946,8 +5950,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B160">
@@ -5964,7 +5968,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B161">
@@ -5981,7 +5985,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B162">
@@ -5998,7 +6002,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B163">
@@ -6015,7 +6019,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B164">
@@ -6032,7 +6036,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B165">
@@ -6049,7 +6053,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B166">
@@ -6065,8 +6069,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B167">
@@ -6082,8 +6086,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B168">
@@ -6100,7 +6104,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B169">
@@ -6117,7 +6121,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B170">
@@ -6134,7 +6138,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B171">
@@ -6151,7 +6155,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B172">
@@ -6167,8 +6171,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B173">
@@ -6185,7 +6189,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B174">
@@ -6202,7 +6206,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B175">
@@ -6218,8 +6222,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="176" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B176">
@@ -6235,8 +6239,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="177" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B177">
@@ -6252,8 +6256,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B178">
@@ -6269,8 +6273,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="179" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B179">
@@ -6286,8 +6290,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B180">
@@ -6303,8 +6307,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B181">
@@ -6321,7 +6325,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B182">
@@ -6338,7 +6342,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B183">
@@ -6354,8 +6358,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="184" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B184">
@@ -6372,7 +6376,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B185">
@@ -6389,7 +6393,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B186">
@@ -6406,7 +6410,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B187">
@@ -6423,7 +6427,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B188">
@@ -6440,7 +6444,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B189">
@@ -6456,8 +6460,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="190" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B190">
@@ -6473,8 +6477,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="191" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B191">
@@ -6490,8 +6494,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B192">
@@ -6508,7 +6512,7 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B193">
@@ -6524,8 +6528,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B194">
@@ -6542,7 +6546,7 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B195">
@@ -6559,7 +6563,7 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B196">
@@ -6576,7 +6580,7 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B197">
@@ -6593,7 +6597,7 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B198">
@@ -6610,7 +6614,7 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B199">
@@ -6627,7 +6631,7 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B200">
@@ -6643,8 +6647,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B201">
@@ -6661,7 +6665,7 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B202">
@@ -6678,7 +6682,7 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B203">
@@ -6695,7 +6699,7 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B204">
@@ -6712,7 +6716,7 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B205">
@@ -6729,7 +6733,7 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B206">
@@ -6745,8 +6749,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B207">
@@ -6762,8 +6766,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="208" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B208">
@@ -6780,7 +6784,7 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B209">
@@ -6796,8 +6800,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="210" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B210">
@@ -6814,7 +6818,7 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B211">
@@ -6831,7 +6835,7 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B212">
@@ -6848,7 +6852,7 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B213">
@@ -6865,7 +6869,7 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B214">
@@ -6881,8 +6885,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B215">
@@ -6899,7 +6903,7 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B216">
@@ -6915,8 +6919,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B217">
@@ -6933,7 +6937,7 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B218">
@@ -6950,7 +6954,7 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B219">
@@ -6967,7 +6971,7 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B220">
@@ -6984,7 +6988,7 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B221">
@@ -7001,7 +7005,7 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B222">
@@ -7018,7 +7022,7 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B223">
@@ -7035,7 +7039,7 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B224">
@@ -7051,8 +7055,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="225" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B225">
@@ -7069,7 +7073,7 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B226">
@@ -7086,7 +7090,7 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B227">
@@ -7103,7 +7107,7 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B228">
@@ -7120,7 +7124,7 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B229">
@@ -7137,7 +7141,7 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B230">
@@ -7154,7 +7158,7 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B231">
@@ -7170,8 +7174,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="232" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B232">
@@ -7188,7 +7192,7 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B233">
@@ -7205,7 +7209,7 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B234">
@@ -7222,7 +7226,7 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B235">
@@ -7239,7 +7243,7 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B236">
@@ -7256,7 +7260,7 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B237">
@@ -7272,8 +7276,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="238" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B238">
@@ -7289,8 +7293,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="239" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B239">
@@ -7306,8 +7310,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B240">
@@ -7324,7 +7328,7 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B241">
@@ -7340,8 +7344,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="242" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B242">
@@ -7358,7 +7362,7 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B243">
@@ -7375,7 +7379,7 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="A244" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B244">
@@ -7392,7 +7396,7 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B245">
@@ -7409,7 +7413,7 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B246">
@@ -7425,8 +7429,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="247" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B247">
@@ -7442,8 +7446,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B248">
@@ -7459,8 +7463,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B249">
@@ -7476,8 +7480,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="250" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B250">
@@ -7494,7 +7498,7 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="A251" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B251">
@@ -7511,7 +7515,7 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="A252" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B252">
@@ -7528,7 +7532,7 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="A253" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B253">
@@ -7545,7 +7549,7 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="A254" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B254">
@@ -7562,7 +7566,7 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="A255" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B255">
@@ -7578,8 +7582,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="256" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B256">
@@ -7595,8 +7599,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="257" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B257">
@@ -7613,7 +7617,7 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="A258" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B258">
@@ -7629,8 +7633,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="259" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B259">
@@ -7647,7 +7651,7 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="A260" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B260">
@@ -7664,7 +7668,7 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="A261" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B261">
@@ -7681,7 +7685,7 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="A262" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B262">
@@ -7697,8 +7701,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+    <row r="263" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B263">
@@ -7714,8 +7718,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="264" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B264">
@@ -7731,8 +7735,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="265" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B265">
@@ -7748,8 +7752,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    <row r="266" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B266">
@@ -7765,8 +7769,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B267">
@@ -7782,8 +7786,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="268" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B268">
@@ -7799,8 +7803,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="269" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B269">
@@ -7817,7 +7821,7 @@
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="A270" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B270">
@@ -7833,8 +7837,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="271" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B271">
@@ -7851,7 +7855,7 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="A272" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B272">
@@ -7868,7 +7872,7 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="A273" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B273">
@@ -7885,7 +7889,7 @@
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="A274" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B274">
@@ -7902,7 +7906,7 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="A275" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B275">
@@ -7919,7 +7923,7 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="A276" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B276">
@@ -7936,7 +7940,7 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="A277" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B277">
@@ -7953,7 +7957,7 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="A278" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B278">
@@ -7970,7 +7974,7 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="A279" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B279">
@@ -7986,8 +7990,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="280" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B280">
@@ -8003,8 +8007,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="281" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B281">
@@ -8021,7 +8025,7 @@
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="A282" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B282">
@@ -8037,8 +8041,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+    <row r="283" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B283">
@@ -8055,7 +8059,7 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="A284" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B284">
@@ -8072,7 +8076,7 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="A285" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B285">
@@ -8089,7 +8093,7 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="A286" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B286">
@@ -8106,7 +8110,7 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="A287" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B287">
@@ -8122,8 +8126,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+    <row r="288" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B288">
@@ -8140,7 +8144,7 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="A289" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B289">
@@ -8157,7 +8161,7 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="A290" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B290">
@@ -8173,8 +8177,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+    <row r="291" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B291">
@@ -8191,7 +8195,7 @@
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="A292" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B292">
@@ -8208,7 +8212,7 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="A293" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B293">
@@ -8225,7 +8229,7 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="A294" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B294">
@@ -8242,7 +8246,7 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="A295" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B295">
@@ -8258,8 +8262,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+    <row r="296" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B296">
@@ -8276,7 +8280,7 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="A297" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B297">
@@ -8293,7 +8297,7 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="A298" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B298">
@@ -8310,7 +8314,7 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="A299" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B299">
@@ -8326,8 +8330,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+    <row r="300" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B300">
@@ -8343,8 +8347,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+    <row r="301" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B301">
@@ -8361,7 +8365,7 @@
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="A302" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B302">
@@ -8377,8 +8381,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+    <row r="303" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B303">
@@ -8394,8 +8398,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+    <row r="304" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B304">
@@ -8411,8 +8415,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+    <row r="305" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B305">
@@ -8428,8 +8432,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+    <row r="306" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B306">
@@ -8446,7 +8450,7 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="A307" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B307">
@@ -8463,7 +8467,7 @@
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="A308" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B308">
@@ -8479,8 +8483,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+    <row r="309" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B309">
@@ -8497,7 +8501,7 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="A310" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B310">
@@ -8513,8 +8517,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+    <row r="311" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B311">
@@ -8531,7 +8535,7 @@
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="A312" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B312">
@@ -8548,7 +8552,7 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="A313" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B313">
@@ -8565,7 +8569,7 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="A314" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B314">
@@ -8582,7 +8586,7 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="A315" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B315">
@@ -8599,7 +8603,7 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="A316" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B316">
@@ -8616,7 +8620,7 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="A317" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B317">
@@ -8633,7 +8637,7 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="A318" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B318">
@@ -8650,7 +8654,7 @@
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="A319" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B319">
@@ -8666,8 +8670,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+    <row r="320" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B320">
@@ -8683,8 +8687,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+    <row r="321" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B321">
@@ -8700,8 +8704,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+    <row r="322" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B322">
@@ -8718,7 +8722,7 @@
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="A323" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B323">
@@ -8735,7 +8739,7 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="A324" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B324">
@@ -8751,8 +8755,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+    <row r="325" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B325">
@@ -8769,7 +8773,7 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="A326" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B326">
@@ -8785,8 +8789,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+    <row r="327" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B327">
@@ -8803,7 +8807,7 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="A328" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B328">
@@ -8819,8 +8823,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+    <row r="329" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B329">
@@ -8836,8 +8840,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+    <row r="330" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B330">
@@ -8853,8 +8857,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+    <row r="331" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B331">
@@ -8870,8 +8874,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+    <row r="332" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B332">
@@ -8888,7 +8892,7 @@
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="A333" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B333">
@@ -8904,8 +8908,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+    <row r="334" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B334">
@@ -8922,7 +8926,7 @@
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="A335" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B335">
@@ -8939,7 +8943,7 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="A336" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B336">
@@ -8955,8 +8959,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+    <row r="337" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B337">
@@ -8973,7 +8977,7 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="A338" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B338">
@@ -8990,7 +8994,7 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="A339" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B339">
@@ -9007,7 +9011,7 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="A340" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B340">
@@ -9024,7 +9028,7 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="A341" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B341">
@@ -9040,8 +9044,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+    <row r="342" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B342">
@@ -9058,7 +9062,7 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="A343" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B343">
@@ -9075,7 +9079,7 @@
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="A344" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B344">
@@ -9092,7 +9096,7 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="A345" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B345">
@@ -9108,8 +9112,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+    <row r="346" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B346">
@@ -9126,7 +9130,7 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="A347" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B347">
@@ -9143,7 +9147,7 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="A348" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B348">
@@ -9159,8 +9163,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+    <row r="349" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B349">
@@ -9176,8 +9180,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+    <row r="350" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B350">
@@ -9193,8 +9197,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+    <row r="351" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B351">
@@ -9211,7 +9215,7 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="A352" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B352">
@@ -9228,7 +9232,7 @@
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="A353" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B353">
@@ -9245,7 +9249,7 @@
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="A354" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B354">
@@ -9261,8 +9265,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+    <row r="355" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B355">
@@ -9278,8 +9282,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+    <row r="356" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B356">
@@ -9296,7 +9300,7 @@
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="A357" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B357">
@@ -9312,8 +9316,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+    <row r="358" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B358">
@@ -9330,7 +9334,7 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="A359" s="1" t="s">
         <v>356</v>
       </c>
       <c r="B359">
@@ -9347,7 +9351,7 @@
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="A360" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B360">
@@ -9363,8 +9367,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+    <row r="361" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B361">
@@ -9380,8 +9384,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+    <row r="362" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B362">
@@ -9397,8 +9401,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+    <row r="363" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B363">
@@ -9415,7 +9419,7 @@
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="A364" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B364">
@@ -9431,8 +9435,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+    <row r="365" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B365">
@@ -9449,7 +9453,7 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="A366" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B366">
@@ -9466,7 +9470,7 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="A367" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B367">
@@ -9483,7 +9487,7 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+      <c r="A368" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B368">
@@ -9500,7 +9504,7 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+      <c r="A369" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B369">
@@ -9517,7 +9521,7 @@
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="A370" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B370">
@@ -9534,7 +9538,7 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="A371" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B371">
@@ -9550,8 +9554,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+    <row r="372" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B372">
@@ -9568,7 +9572,7 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="A373" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B373">
@@ -9585,7 +9589,7 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="A374" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B374">
@@ -9602,7 +9606,7 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="A375" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B375">
@@ -9619,7 +9623,7 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="A376" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B376">
@@ -9635,8 +9639,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+    <row r="377" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B377">
@@ -9652,8 +9656,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+    <row r="378" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B378">
@@ -9669,8 +9673,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+    <row r="379" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B379">
@@ -9687,7 +9691,7 @@
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+      <c r="A380" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B380">
@@ -9704,7 +9708,7 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+      <c r="A381" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B381">
@@ -9720,8 +9724,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+    <row r="382" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B382">
@@ -9738,7 +9742,7 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+      <c r="A383" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B383">
@@ -9754,8 +9758,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+    <row r="384" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B384">
@@ -9771,8 +9775,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+    <row r="385" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B385">
@@ -9788,8 +9792,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+    <row r="386" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
         <v>383</v>
       </c>
       <c r="B386">
@@ -9806,7 +9810,7 @@
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+      <c r="A387" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B387">
@@ -9822,8 +9826,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+    <row r="388" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B388">
@@ -9840,7 +9844,7 @@
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+      <c r="A389" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B389">
@@ -9857,7 +9861,7 @@
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="A390" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B390">
@@ -9874,7 +9878,7 @@
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="A391" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B391">
@@ -9891,7 +9895,7 @@
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+      <c r="A392" s="1" t="s">
         <v>389</v>
       </c>
       <c r="B392">
@@ -9908,7 +9912,7 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+      <c r="A393" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B393">
@@ -9925,7 +9929,7 @@
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="A394" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B394">
@@ -9942,7 +9946,7 @@
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="A395" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B395">
@@ -9959,7 +9963,7 @@
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="A396" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B396">
@@ -9975,8 +9979,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+    <row r="397" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B397">
@@ -9992,8 +9996,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+    <row r="398" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
         <v>395</v>
       </c>
       <c r="B398">
@@ -10010,7 +10014,7 @@
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="A399" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B399">
@@ -10027,7 +10031,7 @@
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="A400" s="1" t="s">
         <v>397</v>
       </c>
       <c r="B400">
@@ -10043,8 +10047,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+    <row r="401" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
         <v>398</v>
       </c>
       <c r="B401">
@@ -10060,8 +10064,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+    <row r="402" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B402">
@@ -10078,7 +10082,7 @@
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="A403" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B403">
@@ -10095,7 +10099,7 @@
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="A404" s="1" t="s">
         <v>401</v>
       </c>
       <c r="B404">
@@ -10111,8 +10115,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+    <row r="405" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B405">
@@ -10129,7 +10133,7 @@
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="A406" s="1" t="s">
         <v>403</v>
       </c>
       <c r="B406">
@@ -10146,7 +10150,7 @@
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="A407" s="1" t="s">
         <v>404</v>
       </c>
       <c r="B407">
@@ -10162,8 +10166,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+    <row r="408" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
         <v>405</v>
       </c>
       <c r="B408">
@@ -10180,7 +10184,7 @@
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+      <c r="A409" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B409">
@@ -10197,7 +10201,7 @@
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="A410" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B410">
@@ -10214,7 +10218,7 @@
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+      <c r="A411" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B411">
@@ -10231,7 +10235,7 @@
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+      <c r="A412" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B412">
@@ -10248,7 +10252,7 @@
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+      <c r="A413" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B413">
@@ -10265,7 +10269,7 @@
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+      <c r="A414" s="1" t="s">
         <v>411</v>
       </c>
       <c r="B414">
@@ -10282,7 +10286,7 @@
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+      <c r="A415" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B415">
@@ -10299,7 +10303,7 @@
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+      <c r="A416" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B416">
@@ -10315,8 +10319,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+    <row r="417" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B417">
@@ -10332,8 +10336,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+    <row r="418" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
         <v>415</v>
       </c>
       <c r="B418">
@@ -10350,7 +10354,7 @@
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+      <c r="A419" s="1" t="s">
         <v>416</v>
       </c>
       <c r="B419">
@@ -10367,7 +10371,7 @@
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+      <c r="A420" s="1" t="s">
         <v>417</v>
       </c>
       <c r="B420">
@@ -10383,8 +10387,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+    <row r="421" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B421">
@@ -10401,7 +10405,7 @@
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+      <c r="A422" s="1" t="s">
         <v>419</v>
       </c>
       <c r="B422">
@@ -10418,7 +10422,7 @@
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+      <c r="A423" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B423">
@@ -10435,7 +10439,7 @@
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+      <c r="A424" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B424">
@@ -10451,8 +10455,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+    <row r="425" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B425">
@@ -10469,7 +10473,7 @@
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="A426" s="1" t="s">
         <v>423</v>
       </c>
       <c r="B426">
@@ -10486,7 +10490,7 @@
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+      <c r="A427" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B427">
@@ -10503,7 +10507,7 @@
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+      <c r="A428" s="1" t="s">
         <v>425</v>
       </c>
       <c r="B428">
@@ -10520,7 +10524,7 @@
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+      <c r="A429" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B429">
@@ -10537,7 +10541,7 @@
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+      <c r="A430" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B430">
@@ -10554,7 +10558,7 @@
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+      <c r="A431" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B431">
@@ -10570,8 +10574,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+    <row r="432" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B432">
@@ -10587,8 +10591,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+    <row r="433" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B433">
@@ -10604,8 +10608,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+    <row r="434" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B434">
@@ -10622,7 +10626,7 @@
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+      <c r="A435" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B435">
@@ -10639,7 +10643,7 @@
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+      <c r="A436" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B436">
@@ -10656,7 +10660,7 @@
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+      <c r="A437" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B437">
@@ -10673,7 +10677,7 @@
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+      <c r="A438" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B438">
@@ -10689,8 +10693,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
+    <row r="439" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B439">
@@ -10707,7 +10711,7 @@
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
+      <c r="A440" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B440">
@@ -10723,8 +10727,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+    <row r="441" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B441">
@@ -10741,7 +10745,7 @@
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
+      <c r="A442" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B442">
@@ -10757,8 +10761,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+    <row r="443" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B443">
@@ -10774,8 +10778,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
+    <row r="444" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B444">
@@ -10791,8 +10795,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
+    <row r="445" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B445">
@@ -10808,8 +10812,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
+    <row r="446" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B446">
@@ -10826,7 +10830,7 @@
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+      <c r="A447" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B447">
@@ -10842,8 +10846,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
+    <row r="448" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B448">
@@ -10859,8 +10863,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
+    <row r="449" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B449">
@@ -10877,7 +10881,7 @@
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
+      <c r="A450" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B450">
@@ -10893,8 +10897,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
+    <row r="451" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B451">
@@ -10910,8 +10914,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
+    <row r="452" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B452">
@@ -10928,7 +10932,7 @@
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+      <c r="A453" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B453">
@@ -10944,8 +10948,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
+    <row r="454" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B454">
@@ -10961,8 +10965,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+    <row r="455" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B455">
@@ -10978,8 +10982,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
+    <row r="456" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
         <v>453</v>
       </c>
       <c r="B456">
@@ -10996,7 +11000,7 @@
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+      <c r="A457" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B457">
@@ -11012,8 +11016,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
+    <row r="458" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B458">
@@ -11029,8 +11033,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+    <row r="459" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B459">
@@ -11046,8 +11050,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
+    <row r="460" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B460">
@@ -11064,7 +11068,7 @@
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+      <c r="A461" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B461">
@@ -11080,8 +11084,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
+    <row r="462" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B462">
@@ -11098,7 +11102,7 @@
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+      <c r="A463" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B463">
@@ -11115,7 +11119,7 @@
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+      <c r="A464" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B464">
@@ -11132,7 +11136,7 @@
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
+      <c r="A465" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B465">
@@ -11149,7 +11153,7 @@
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
+      <c r="A466" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B466">
@@ -11165,8 +11169,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+    <row r="467" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B467">
@@ -11183,7 +11187,7 @@
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
+      <c r="A468" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B468">
@@ -11200,7 +11204,7 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
+      <c r="A469" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B469">
@@ -11217,7 +11221,7 @@
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
+      <c r="A470" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B470">
@@ -11234,7 +11238,7 @@
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+      <c r="A471" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B471">
@@ -11250,8 +11254,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
+    <row r="472" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
         <v>469</v>
       </c>
       <c r="B472">
@@ -11267,8 +11271,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
+    <row r="473" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B473">
@@ -11284,8 +11288,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
+    <row r="474" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B474">
@@ -11301,8 +11305,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
+    <row r="475" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B475">
@@ -11319,7 +11323,7 @@
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+      <c r="A476" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B476">
@@ -11336,7 +11340,7 @@
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+      <c r="A477" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B477">
@@ -11352,8 +11356,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
+    <row r="478" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B478">
@@ -11369,8 +11373,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+    <row r="479" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
         <v>476</v>
       </c>
       <c r="B479">
@@ -11387,7 +11391,7 @@
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
+      <c r="A480" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B480">
@@ -11403,8 +11407,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+    <row r="481" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B481">
@@ -11421,7 +11425,7 @@
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+      <c r="A482" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B482">
@@ -11438,7 +11442,7 @@
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+      <c r="A483" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B483">
@@ -11455,7 +11459,7 @@
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
+      <c r="A484" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B484">
@@ -11472,7 +11476,7 @@
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+      <c r="A485" s="1" t="s">
         <v>482</v>
       </c>
       <c r="B485">
@@ -11489,7 +11493,7 @@
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
+      <c r="A486" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B486">
@@ -11506,7 +11510,7 @@
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
+      <c r="A487" s="1" t="s">
         <v>484</v>
       </c>
       <c r="B487">
@@ -11522,8 +11526,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+    <row r="488" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B488">
@@ -11539,8 +11543,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
+    <row r="489" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B489">
@@ -11556,8 +11560,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
+    <row r="490" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B490">
@@ -11574,7 +11578,7 @@
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
+      <c r="A491" s="1" t="s">
         <v>488</v>
       </c>
       <c r="B491">
@@ -11590,8 +11594,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+    <row r="492" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B492">
@@ -11607,8 +11611,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+    <row r="493" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
         <v>490</v>
       </c>
       <c r="B493">
@@ -11624,8 +11628,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
+    <row r="494" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B494">
@@ -11641,8 +11645,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+    <row r="495" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
         <v>492</v>
       </c>
       <c r="B495">
@@ -11659,7 +11663,7 @@
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
+      <c r="A496" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B496">
@@ -11675,8 +11679,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
+    <row r="497" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B497">
@@ -11692,8 +11696,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
+    <row r="498" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B498">
@@ -11710,7 +11714,7 @@
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
+      <c r="A499" s="1" t="s">
         <v>496</v>
       </c>
       <c r="B499">
@@ -11727,7 +11731,7 @@
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
+      <c r="A500" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B500">
@@ -11744,7 +11748,7 @@
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
+      <c r="A501" s="1" t="s">
         <v>498</v>
       </c>
       <c r="B501">
@@ -11760,8 +11764,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
+    <row r="502" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B502">
@@ -11778,7 +11782,7 @@
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
+      <c r="A503" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B503">
@@ -11794,8 +11798,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
+    <row r="504" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B504">
@@ -11811,8 +11815,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
+    <row r="505" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
         <v>502</v>
       </c>
       <c r="B505">
@@ -11828,8 +11832,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
+    <row r="506" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
         <v>503</v>
       </c>
       <c r="B506">
@@ -11846,7 +11850,7 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
+      <c r="A507" s="1" t="s">
         <v>504</v>
       </c>
       <c r="B507">
@@ -11863,7 +11867,7 @@
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
+      <c r="A508" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B508">
@@ -11880,7 +11884,7 @@
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
+      <c r="A509" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B509">
@@ -11897,7 +11901,7 @@
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
+      <c r="A510" s="1" t="s">
         <v>507</v>
       </c>
       <c r="B510">
@@ -11914,7 +11918,7 @@
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
+      <c r="A511" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B511">
@@ -11930,8 +11934,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
+    <row r="512" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B512">
@@ -11948,7 +11952,7 @@
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
+      <c r="A513" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B513">
@@ -11965,7 +11969,7 @@
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
+      <c r="A514" s="1" t="s">
         <v>511</v>
       </c>
       <c r="B514">
@@ -11981,8 +11985,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
+    <row r="515" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B515">
@@ -11999,7 +12003,7 @@
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
+      <c r="A516" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B516">
@@ -12015,8 +12019,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
+    <row r="517" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
         <v>514</v>
       </c>
       <c r="B517">
@@ -12033,7 +12037,7 @@
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
+      <c r="A518" s="1" t="s">
         <v>515</v>
       </c>
       <c r="B518">
@@ -12049,8 +12053,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
+    <row r="519" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
         <v>516</v>
       </c>
       <c r="B519">
@@ -12067,7 +12071,7 @@
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
+      <c r="A520" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B520">
@@ -12084,7 +12088,7 @@
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
+      <c r="A521" s="1" t="s">
         <v>518</v>
       </c>
       <c r="B521">
@@ -12101,7 +12105,7 @@
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
+      <c r="A522" s="1" t="s">
         <v>519</v>
       </c>
       <c r="B522">
@@ -12117,8 +12121,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
+    <row r="523" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
         <v>520</v>
       </c>
       <c r="B523">
@@ -12135,7 +12139,7 @@
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
+      <c r="A524" s="1" t="s">
         <v>521</v>
       </c>
       <c r="B524">
@@ -12151,8 +12155,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
+    <row r="525" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
         <v>522</v>
       </c>
       <c r="B525">
@@ -12169,7 +12173,7 @@
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
+      <c r="A526" s="1" t="s">
         <v>523</v>
       </c>
       <c r="B526">
@@ -12186,7 +12190,7 @@
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
+      <c r="A527" s="1" t="s">
         <v>524</v>
       </c>
       <c r="B527">
@@ -12203,7 +12207,7 @@
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
+      <c r="A528" s="1" t="s">
         <v>525</v>
       </c>
       <c r="B528">
@@ -12220,7 +12224,7 @@
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
+      <c r="A529" s="1" t="s">
         <v>526</v>
       </c>
       <c r="B529">
@@ -12236,8 +12240,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
+    <row r="530" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
         <v>527</v>
       </c>
       <c r="B530">
@@ -12254,7 +12258,7 @@
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
+      <c r="A531" s="1" t="s">
         <v>528</v>
       </c>
       <c r="B531">
@@ -12270,8 +12274,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
+    <row r="532" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
         <v>529</v>
       </c>
       <c r="B532">
@@ -12288,7 +12292,7 @@
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
+      <c r="A533" s="1" t="s">
         <v>530</v>
       </c>
       <c r="B533">
@@ -12305,7 +12309,7 @@
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
+      <c r="A534" s="1" t="s">
         <v>531</v>
       </c>
       <c r="B534">
@@ -12321,8 +12325,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
+    <row r="535" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
         <v>532</v>
       </c>
       <c r="B535">
@@ -12338,8 +12342,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
+    <row r="536" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
         <v>533</v>
       </c>
       <c r="B536">
@@ -12355,8 +12359,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
+    <row r="537" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
         <v>534</v>
       </c>
       <c r="B537">
@@ -12372,8 +12376,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
+    <row r="538" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
         <v>535</v>
       </c>
       <c r="B538">
@@ -12390,7 +12394,7 @@
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
+      <c r="A539" s="1" t="s">
         <v>536</v>
       </c>
       <c r="B539">
@@ -12407,7 +12411,7 @@
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
+      <c r="A540" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B540">
@@ -12424,7 +12428,7 @@
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
+      <c r="A541" s="1" t="s">
         <v>538</v>
       </c>
       <c r="B541">
@@ -12441,7 +12445,7 @@
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
+      <c r="A542" s="1" t="s">
         <v>539</v>
       </c>
       <c r="B542">
@@ -12458,7 +12462,7 @@
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
+      <c r="A543" s="1" t="s">
         <v>540</v>
       </c>
       <c r="B543">
@@ -12475,7 +12479,7 @@
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
+      <c r="A544" s="1" t="s">
         <v>541</v>
       </c>
       <c r="B544">
@@ -12491,8 +12495,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
+    <row r="545" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
         <v>542</v>
       </c>
       <c r="B545">
@@ -12508,8 +12512,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
+    <row r="546" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
         <v>543</v>
       </c>
       <c r="B546">
@@ -12525,8 +12529,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
+    <row r="547" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
         <v>544</v>
       </c>
       <c r="B547">
@@ -12543,7 +12547,7 @@
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
+      <c r="A548" s="1" t="s">
         <v>545</v>
       </c>
       <c r="B548">
@@ -12560,7 +12564,7 @@
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
+      <c r="A549" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B549">
@@ -12577,7 +12581,7 @@
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
+      <c r="A550" s="1" t="s">
         <v>547</v>
       </c>
       <c r="B550">
@@ -12594,7 +12598,7 @@
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
+      <c r="A551" s="1" t="s">
         <v>548</v>
       </c>
       <c r="B551">
@@ -12610,8 +12614,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
+    <row r="552" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
         <v>549</v>
       </c>
       <c r="B552">
@@ -12627,8 +12631,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
+    <row r="553" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B553">
@@ -12645,7 +12649,7 @@
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
+      <c r="A554" s="1" t="s">
         <v>551</v>
       </c>
       <c r="B554">
@@ -12662,7 +12666,7 @@
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
+      <c r="A555" s="1" t="s">
         <v>552</v>
       </c>
       <c r="B555">
@@ -12679,7 +12683,7 @@
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
+      <c r="A556" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B556">
@@ -12696,7 +12700,7 @@
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
+      <c r="A557" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B557">
@@ -12712,8 +12716,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
+    <row r="558" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
         <v>555</v>
       </c>
       <c r="B558">
@@ -12730,7 +12734,7 @@
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
+      <c r="A559" s="1" t="s">
         <v>556</v>
       </c>
       <c r="B559">
@@ -12746,8 +12750,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
+    <row r="560" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
         <v>557</v>
       </c>
       <c r="B560">
@@ -12763,8 +12767,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
+    <row r="561" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
         <v>558</v>
       </c>
       <c r="B561">
@@ -12780,8 +12784,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
+    <row r="562" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
         <v>559</v>
       </c>
       <c r="B562">
@@ -12798,7 +12802,7 @@
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
+      <c r="A563" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B563">
@@ -12814,8 +12818,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
+    <row r="564" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
         <v>561</v>
       </c>
       <c r="B564">
@@ -12831,8 +12835,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
+    <row r="565" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
         <v>562</v>
       </c>
       <c r="B565">
@@ -12849,7 +12853,7 @@
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
+      <c r="A566" s="1" t="s">
         <v>563</v>
       </c>
       <c r="B566">
@@ -12866,7 +12870,7 @@
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
+      <c r="A567" s="1" t="s">
         <v>564</v>
       </c>
       <c r="B567">
@@ -12883,7 +12887,7 @@
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
+      <c r="A568" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B568">
@@ -12900,7 +12904,7 @@
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
+      <c r="A569" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B569">
@@ -12917,7 +12921,7 @@
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
+      <c r="A570" s="1" t="s">
         <v>567</v>
       </c>
       <c r="B570">
@@ -12933,8 +12937,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
+    <row r="571" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
         <v>568</v>
       </c>
       <c r="B571">
@@ -12951,7 +12955,7 @@
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
+      <c r="A572" s="1" t="s">
         <v>569</v>
       </c>
       <c r="B572">
@@ -12968,7 +12972,7 @@
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
+      <c r="A573" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B573">
@@ -12985,7 +12989,7 @@
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
+      <c r="A574" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B574">
@@ -13002,7 +13006,7 @@
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
+      <c r="A575" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B575">
@@ -13019,7 +13023,7 @@
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
+      <c r="A576" s="1" t="s">
         <v>573</v>
       </c>
       <c r="B576">
@@ -13035,8 +13039,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
+    <row r="577" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B577">
@@ -13052,8 +13056,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
+    <row r="578" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
         <v>575</v>
       </c>
       <c r="B578">
@@ -13069,8 +13073,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
+    <row r="579" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B579">
@@ -13086,8 +13090,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
+    <row r="580" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B580">
@@ -13104,7 +13108,7 @@
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
+      <c r="A581" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B581">
@@ -13121,7 +13125,7 @@
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
+      <c r="A582" s="1" t="s">
         <v>579</v>
       </c>
       <c r="B582">
@@ -13138,7 +13142,7 @@
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
+      <c r="A583" s="1" t="s">
         <v>580</v>
       </c>
       <c r="B583">
@@ -13154,8 +13158,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
+    <row r="584" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
         <v>581</v>
       </c>
       <c r="B584">
@@ -13172,7 +13176,7 @@
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
+      <c r="A585" s="1" t="s">
         <v>582</v>
       </c>
       <c r="B585">
@@ -13189,7 +13193,7 @@
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
+      <c r="A586" s="1" t="s">
         <v>583</v>
       </c>
       <c r="B586">
@@ -13205,8 +13209,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
+    <row r="587" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
         <v>584</v>
       </c>
       <c r="B587">
@@ -13222,8 +13226,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
+    <row r="588" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
         <v>585</v>
       </c>
       <c r="B588">
@@ -13240,7 +13244,7 @@
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
+      <c r="A589" s="1" t="s">
         <v>586</v>
       </c>
       <c r="B589">
@@ -13256,8 +13260,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
+    <row r="590" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
         <v>587</v>
       </c>
       <c r="B590">
@@ -13273,8 +13277,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
+    <row r="591" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
         <v>588</v>
       </c>
       <c r="B591">
@@ -13291,7 +13295,7 @@
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
+      <c r="A592" s="1" t="s">
         <v>589</v>
       </c>
       <c r="B592">
@@ -13307,8 +13311,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
+    <row r="593" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
         <v>590</v>
       </c>
       <c r="B593">
@@ -13324,8 +13328,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
+    <row r="594" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
         <v>591</v>
       </c>
       <c r="B594">
@@ -13341,8 +13345,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
+    <row r="595" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
         <v>592</v>
       </c>
       <c r="B595">
@@ -13359,7 +13363,7 @@
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
+      <c r="A596" s="1" t="s">
         <v>593</v>
       </c>
       <c r="B596">
@@ -13375,8 +13379,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
+    <row r="597" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
         <v>594</v>
       </c>
       <c r="B597">
@@ -13393,7 +13397,7 @@
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
+      <c r="A598" s="1" t="s">
         <v>595</v>
       </c>
       <c r="B598">
@@ -13410,7 +13414,7 @@
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
+      <c r="A599" s="1" t="s">
         <v>596</v>
       </c>
       <c r="B599">
@@ -13427,7 +13431,7 @@
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
+      <c r="A600" s="1" t="s">
         <v>597</v>
       </c>
       <c r="B600">
@@ -13444,7 +13448,7 @@
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
+      <c r="A601" s="1" t="s">
         <v>598</v>
       </c>
       <c r="B601">
@@ -13461,7 +13465,7 @@
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
+      <c r="A602" s="1" t="s">
         <v>599</v>
       </c>
       <c r="B602">
@@ -13478,7 +13482,7 @@
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
+      <c r="A603" s="1" t="s">
         <v>600</v>
       </c>
       <c r="B603">
@@ -13495,7 +13499,7 @@
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
+      <c r="A604" s="1" t="s">
         <v>601</v>
       </c>
       <c r="B604">
@@ -13512,7 +13516,7 @@
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
+      <c r="A605" s="1" t="s">
         <v>602</v>
       </c>
       <c r="B605">
@@ -13528,8 +13532,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
+    <row r="606" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
         <v>603</v>
       </c>
       <c r="B606">
@@ -13546,7 +13550,7 @@
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
+      <c r="A607" s="1" t="s">
         <v>604</v>
       </c>
       <c r="B607">
@@ -13563,7 +13567,7 @@
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
+      <c r="A608" s="1" t="s">
         <v>605</v>
       </c>
       <c r="B608">
@@ -13579,8 +13583,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
+    <row r="609" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
         <v>606</v>
       </c>
       <c r="B609">
@@ -13596,8 +13600,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
+    <row r="610" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
         <v>607</v>
       </c>
       <c r="B610">
@@ -13614,7 +13618,7 @@
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
+      <c r="A611" s="1" t="s">
         <v>608</v>
       </c>
       <c r="B611">
@@ -13630,8 +13634,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
+    <row r="612" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
         <v>609</v>
       </c>
       <c r="B612">
@@ -13647,8 +13651,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
+    <row r="613" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
         <v>610</v>
       </c>
       <c r="B613">
@@ -13664,8 +13668,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
+    <row r="614" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
         <v>611</v>
       </c>
       <c r="B614">
@@ -13681,8 +13685,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
+    <row r="615" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
         <v>612</v>
       </c>
       <c r="B615">
@@ -13699,7 +13703,7 @@
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
+      <c r="A616" s="1" t="s">
         <v>613</v>
       </c>
       <c r="B616">
@@ -13715,8 +13719,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
+    <row r="617" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
         <v>614</v>
       </c>
       <c r="B617">
@@ -13732,8 +13736,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
+    <row r="618" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
         <v>615</v>
       </c>
       <c r="B618">
@@ -13750,7 +13754,7 @@
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
+      <c r="A619" s="1" t="s">
         <v>616</v>
       </c>
       <c r="B619">
@@ -13767,7 +13771,7 @@
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
+      <c r="A620" s="1" t="s">
         <v>617</v>
       </c>
       <c r="B620">
@@ -13783,8 +13787,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
+    <row r="621" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
         <v>618</v>
       </c>
       <c r="B621">
@@ -13800,8 +13804,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
+    <row r="622" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
         <v>619</v>
       </c>
       <c r="B622">
@@ -13817,8 +13821,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
+    <row r="623" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
         <v>620</v>
       </c>
       <c r="B623">
@@ -13835,7 +13839,7 @@
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
+      <c r="A624" s="1" t="s">
         <v>621</v>
       </c>
       <c r="B624">
@@ -13852,7 +13856,7 @@
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
+      <c r="A625" s="1" t="s">
         <v>622</v>
       </c>
       <c r="B625">
@@ -13868,8 +13872,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
+    <row r="626" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
         <v>623</v>
       </c>
       <c r="B626">
@@ -13886,7 +13890,7 @@
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
+      <c r="A627" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B627">
@@ -13903,7 +13907,7 @@
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
+      <c r="A628" s="1" t="s">
         <v>625</v>
       </c>
       <c r="B628">
@@ -13920,7 +13924,7 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
+      <c r="A629" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B629">
@@ -13937,7 +13941,7 @@
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
+      <c r="A630" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B630">
@@ -13953,8 +13957,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
+    <row r="631" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B631">
@@ -13971,7 +13975,7 @@
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
+      <c r="A632" s="1" t="s">
         <v>629</v>
       </c>
       <c r="B632">
@@ -13988,7 +13992,7 @@
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
+      <c r="A633" s="1" t="s">
         <v>630</v>
       </c>
       <c r="B633">
@@ -14004,8 +14008,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
+    <row r="634" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
         <v>631</v>
       </c>
       <c r="B634">
@@ -14021,8 +14025,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
+    <row r="635" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
         <v>632</v>
       </c>
       <c r="B635">
@@ -14038,8 +14042,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
+    <row r="636" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
         <v>633</v>
       </c>
       <c r="B636">
@@ -14056,7 +14060,7 @@
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
+      <c r="A637" s="1" t="s">
         <v>634</v>
       </c>
       <c r="B637">
@@ -14072,8 +14076,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" t="s">
+    <row r="638" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
         <v>635</v>
       </c>
       <c r="B638">
@@ -14089,8 +14093,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
+    <row r="639" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B639">
@@ -14106,8 +14110,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A640" t="s">
+    <row r="640" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
         <v>637</v>
       </c>
       <c r="B640">
@@ -14123,8 +14127,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A641" t="s">
+    <row r="641" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
         <v>638</v>
       </c>
       <c r="B641">
@@ -14140,8 +14144,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
+    <row r="642" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
         <v>639</v>
       </c>
       <c r="B642">
@@ -14158,7 +14162,7 @@
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
+      <c r="A643" s="1" t="s">
         <v>640</v>
       </c>
       <c r="B643">
@@ -14174,8 +14178,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
+    <row r="644" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
         <v>641</v>
       </c>
       <c r="B644">
@@ -14192,7 +14196,7 @@
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
+      <c r="A645" s="1" t="s">
         <v>642</v>
       </c>
       <c r="B645">
@@ -14208,8 +14212,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
+    <row r="646" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
         <v>643</v>
       </c>
       <c r="B646">
@@ -14225,8 +14229,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A647" t="s">
+    <row r="647" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
         <v>644</v>
       </c>
       <c r="B647">
@@ -14243,7 +14247,7 @@
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A648" t="s">
+      <c r="A648" s="1" t="s">
         <v>645</v>
       </c>
       <c r="B648">
@@ -14259,8 +14263,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A649" t="s">
+    <row r="649" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
         <v>646</v>
       </c>
       <c r="B649">
@@ -14277,7 +14281,7 @@
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
+      <c r="A650" s="1" t="s">
         <v>647</v>
       </c>
       <c r="B650">
@@ -14294,7 +14298,7 @@
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
+      <c r="A651" s="1" t="s">
         <v>648</v>
       </c>
       <c r="B651">
@@ -14310,8 +14314,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
+    <row r="652" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
         <v>649</v>
       </c>
       <c r="B652">
@@ -14328,7 +14332,7 @@
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A653" t="s">
+      <c r="A653" s="1" t="s">
         <v>650</v>
       </c>
       <c r="B653">
@@ -14344,8 +14348,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
+    <row r="654" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
         <v>651</v>
       </c>
       <c r="B654">
@@ -14361,8 +14365,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
+    <row r="655" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
         <v>652</v>
       </c>
       <c r="B655">
@@ -14379,7 +14383,7 @@
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
+      <c r="A656" s="1" t="s">
         <v>653</v>
       </c>
       <c r="B656">
@@ -14396,7 +14400,7 @@
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A657" t="s">
+      <c r="A657" s="1" t="s">
         <v>654</v>
       </c>
       <c r="B657">
@@ -14412,8 +14416,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
+    <row r="658" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
         <v>655</v>
       </c>
       <c r="B658">
@@ -14429,8 +14433,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
+    <row r="659" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
         <v>656</v>
       </c>
       <c r="B659">
@@ -14447,7 +14451,7 @@
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
+      <c r="A660" s="1" t="s">
         <v>657</v>
       </c>
       <c r="B660">
@@ -14463,8 +14467,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A661" t="s">
+    <row r="661" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
         <v>658</v>
       </c>
       <c r="B661">
@@ -14480,8 +14484,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A662" t="s">
+    <row r="662" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
         <v>659</v>
       </c>
       <c r="B662">
@@ -14498,7 +14502,7 @@
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A663" t="s">
+      <c r="A663" s="1" t="s">
         <v>660</v>
       </c>
       <c r="B663">
@@ -14515,7 +14519,7 @@
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A664" t="s">
+      <c r="A664" s="1" t="s">
         <v>661</v>
       </c>
       <c r="B664">
@@ -14532,7 +14536,7 @@
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A665" t="s">
+      <c r="A665" s="1" t="s">
         <v>662</v>
       </c>
       <c r="B665">
@@ -14549,7 +14553,7 @@
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A666" t="s">
+      <c r="A666" s="1" t="s">
         <v>663</v>
       </c>
       <c r="B666">
@@ -14565,8 +14569,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A667" t="s">
+    <row r="667" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
         <v>664</v>
       </c>
       <c r="B667">
@@ -14583,7 +14587,7 @@
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A668" t="s">
+      <c r="A668" s="1" t="s">
         <v>665</v>
       </c>
       <c r="B668">
@@ -14599,8 +14603,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A669" t="s">
+    <row r="669" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
         <v>666</v>
       </c>
       <c r="B669">
@@ -14616,8 +14620,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A670" t="s">
+    <row r="670" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
         <v>667</v>
       </c>
       <c r="B670">
@@ -14634,7 +14638,7 @@
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A671" t="s">
+      <c r="A671" s="1" t="s">
         <v>668</v>
       </c>
       <c r="B671">
@@ -14651,7 +14655,7 @@
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A672" t="s">
+      <c r="A672" s="1" t="s">
         <v>669</v>
       </c>
       <c r="B672">
@@ -14667,8 +14671,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A673" t="s">
+    <row r="673" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
         <v>670</v>
       </c>
       <c r="B673">
@@ -14685,7 +14689,7 @@
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A674" t="s">
+      <c r="A674" s="1" t="s">
         <v>671</v>
       </c>
       <c r="B674">
@@ -14702,7 +14706,7 @@
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A675" t="s">
+      <c r="A675" s="1" t="s">
         <v>672</v>
       </c>
       <c r="B675">
@@ -14719,7 +14723,7 @@
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A676" t="s">
+      <c r="A676" s="1" t="s">
         <v>673</v>
       </c>
       <c r="B676">
@@ -14735,8 +14739,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A677" t="s">
+    <row r="677" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
         <v>674</v>
       </c>
       <c r="B677">
@@ -14752,8 +14756,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A678" t="s">
+    <row r="678" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
         <v>675</v>
       </c>
       <c r="B678">
@@ -14770,7 +14774,7 @@
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A679" t="s">
+      <c r="A679" s="1" t="s">
         <v>676</v>
       </c>
       <c r="B679">
@@ -14787,7 +14791,7 @@
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A680" t="s">
+      <c r="A680" s="1" t="s">
         <v>677</v>
       </c>
       <c r="B680">
@@ -14804,7 +14808,7 @@
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
+      <c r="A681" s="1" t="s">
         <v>678</v>
       </c>
       <c r="B681">
@@ -14820,8 +14824,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
+    <row r="682" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
         <v>679</v>
       </c>
       <c r="B682">
@@ -14838,7 +14842,7 @@
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
+      <c r="A683" s="1" t="s">
         <v>680</v>
       </c>
       <c r="B683">
@@ -14855,7 +14859,7 @@
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A684" t="s">
+      <c r="A684" s="1" t="s">
         <v>681</v>
       </c>
       <c r="B684">
@@ -14872,7 +14876,7 @@
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A685" t="s">
+      <c r="A685" s="1" t="s">
         <v>682</v>
       </c>
       <c r="B685">
@@ -14889,7 +14893,7 @@
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A686" t="s">
+      <c r="A686" s="1" t="s">
         <v>683</v>
       </c>
       <c r="B686">
@@ -14905,8 +14909,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A687" t="s">
+    <row r="687" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
         <v>684</v>
       </c>
       <c r="B687">
@@ -14922,8 +14926,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A688" t="s">
+    <row r="688" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
         <v>685</v>
       </c>
       <c r="B688">
@@ -14939,8 +14943,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A689" t="s">
+    <row r="689" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
         <v>686</v>
       </c>
       <c r="B689">
@@ -14956,8 +14960,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
+    <row r="690" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
         <v>687</v>
       </c>
       <c r="B690">
@@ -14974,7 +14978,7 @@
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A691" t="s">
+      <c r="A691" s="1" t="s">
         <v>688</v>
       </c>
       <c r="B691">
@@ -14991,7 +14995,7 @@
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A692" t="s">
+      <c r="A692" s="1" t="s">
         <v>689</v>
       </c>
       <c r="B692">
@@ -15007,8 +15011,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A693" t="s">
+    <row r="693" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
         <v>690</v>
       </c>
       <c r="B693">
@@ -15024,8 +15028,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A694" t="s">
+    <row r="694" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
         <v>691</v>
       </c>
       <c r="B694">
@@ -15041,8 +15045,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A695" t="s">
+    <row r="695" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
         <v>692</v>
       </c>
       <c r="B695">
@@ -15059,7 +15063,7 @@
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A696" t="s">
+      <c r="A696" s="1" t="s">
         <v>693</v>
       </c>
       <c r="B696">
@@ -15076,7 +15080,7 @@
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A697" t="s">
+      <c r="A697" s="1" t="s">
         <v>694</v>
       </c>
       <c r="B697">
@@ -15093,7 +15097,7 @@
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A698" t="s">
+      <c r="A698" s="1" t="s">
         <v>695</v>
       </c>
       <c r="B698">
@@ -15110,7 +15114,7 @@
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A699" t="s">
+      <c r="A699" s="1" t="s">
         <v>696</v>
       </c>
       <c r="B699">
@@ -15126,8 +15130,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A700" t="s">
+    <row r="700" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
         <v>697</v>
       </c>
       <c r="B700">
@@ -15143,8 +15147,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A701" t="s">
+    <row r="701" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
         <v>698</v>
       </c>
       <c r="B701">
@@ -15161,7 +15165,7 @@
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
+      <c r="A702" s="1" t="s">
         <v>699</v>
       </c>
       <c r="B702">
@@ -15178,7 +15182,7 @@
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A703" t="s">
+      <c r="A703" s="1" t="s">
         <v>700</v>
       </c>
       <c r="B703">
@@ -15195,7 +15199,7 @@
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A704" t="s">
+      <c r="A704" s="1" t="s">
         <v>701</v>
       </c>
       <c r="B704">
@@ -15212,7 +15216,7 @@
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A705" t="s">
+      <c r="A705" s="1" t="s">
         <v>702</v>
       </c>
       <c r="B705">
@@ -15229,7 +15233,7 @@
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A706" t="s">
+      <c r="A706" s="1" t="s">
         <v>703</v>
       </c>
       <c r="B706">
@@ -15246,7 +15250,7 @@
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
+      <c r="A707" s="1" t="s">
         <v>704</v>
       </c>
       <c r="B707">
@@ -15263,7 +15267,7 @@
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
+      <c r="A708" s="1" t="s">
         <v>705</v>
       </c>
       <c r="B708">
@@ -15280,7 +15284,7 @@
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A709" t="s">
+      <c r="A709" s="1" t="s">
         <v>706</v>
       </c>
       <c r="B709">
@@ -15296,8 +15300,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A710" t="s">
+    <row r="710" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A710" s="1" t="s">
         <v>707</v>
       </c>
       <c r="B710">
@@ -15313,8 +15317,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
+    <row r="711" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A711" s="1" t="s">
         <v>708</v>
       </c>
       <c r="B711">
@@ -15331,7 +15335,7 @@
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A712" t="s">
+      <c r="A712" s="1" t="s">
         <v>709</v>
       </c>
       <c r="B712">
@@ -15347,8 +15351,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A713" t="s">
+    <row r="713" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A713" s="1" t="s">
         <v>710</v>
       </c>
       <c r="B713">
@@ -15364,8 +15368,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A714" t="s">
+    <row r="714" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
         <v>711</v>
       </c>
       <c r="B714">
@@ -15381,8 +15385,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
+    <row r="715" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
         <v>712</v>
       </c>
       <c r="B715">
@@ -15399,7 +15403,7 @@
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A716" t="s">
+      <c r="A716" s="1" t="s">
         <v>713</v>
       </c>
       <c r="B716">
@@ -15416,7 +15420,7 @@
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A717" t="s">
+      <c r="A717" s="1" t="s">
         <v>714</v>
       </c>
       <c r="B717">
@@ -15433,7 +15437,7 @@
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A718" t="s">
+      <c r="A718" s="1" t="s">
         <v>715</v>
       </c>
       <c r="B718">
@@ -15450,7 +15454,7 @@
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A719" t="s">
+      <c r="A719" s="1" t="s">
         <v>716</v>
       </c>
       <c r="B719">
@@ -15467,7 +15471,7 @@
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A720" t="s">
+      <c r="A720" s="1" t="s">
         <v>717</v>
       </c>
       <c r="B720">
@@ -15484,7 +15488,7 @@
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A721" t="s">
+      <c r="A721" s="1" t="s">
         <v>718</v>
       </c>
       <c r="B721">
@@ -15501,7 +15505,7 @@
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
+      <c r="A722" s="1" t="s">
         <v>719</v>
       </c>
       <c r="B722">
@@ -15518,7 +15522,7 @@
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A723" t="s">
+      <c r="A723" s="1" t="s">
         <v>720</v>
       </c>
       <c r="B723">
@@ -15535,7 +15539,7 @@
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A724" t="s">
+      <c r="A724" s="1" t="s">
         <v>721</v>
       </c>
       <c r="B724">
@@ -15552,7 +15556,7 @@
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
+      <c r="A725" s="1" t="s">
         <v>722</v>
       </c>
       <c r="B725">
@@ -15569,7 +15573,7 @@
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A726" t="s">
+      <c r="A726" s="1" t="s">
         <v>723</v>
       </c>
       <c r="B726">
@@ -15585,8 +15589,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A727" t="s">
+    <row r="727" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
         <v>724</v>
       </c>
       <c r="B727">
@@ -15602,8 +15606,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A728" t="s">
+    <row r="728" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A728" s="1" t="s">
         <v>725</v>
       </c>
       <c r="B728">
@@ -15619,8 +15623,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A729" t="s">
+    <row r="729" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
         <v>726</v>
       </c>
       <c r="B729">
@@ -15636,8 +15640,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A730" t="s">
+    <row r="730" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A730" s="1" t="s">
         <v>727</v>
       </c>
       <c r="B730">
@@ -15654,7 +15658,7 @@
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A731" t="s">
+      <c r="A731" s="1" t="s">
         <v>728</v>
       </c>
       <c r="B731">
@@ -15670,8 +15674,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A732" t="s">
+    <row r="732" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A732" s="1" t="s">
         <v>729</v>
       </c>
       <c r="B732">
@@ -15688,7 +15692,7 @@
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A733" t="s">
+      <c r="A733" s="1" t="s">
         <v>730</v>
       </c>
       <c r="B733">
@@ -15705,7 +15709,7 @@
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A734" t="s">
+      <c r="A734" s="1" t="s">
         <v>731</v>
       </c>
       <c r="B734">
@@ -15722,7 +15726,7 @@
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A735" t="s">
+      <c r="A735" s="1" t="s">
         <v>732</v>
       </c>
       <c r="B735">
@@ -15739,7 +15743,7 @@
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A736" t="s">
+      <c r="A736" s="1" t="s">
         <v>733</v>
       </c>
       <c r="B736">
@@ -15756,7 +15760,7 @@
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A737" t="s">
+      <c r="A737" s="1" t="s">
         <v>734</v>
       </c>
       <c r="B737">
@@ -15772,8 +15776,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A738" t="s">
+    <row r="738" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A738" s="1" t="s">
         <v>735</v>
       </c>
       <c r="B738">
@@ -15790,7 +15794,7 @@
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A739" t="s">
+      <c r="A739" s="1" t="s">
         <v>736</v>
       </c>
       <c r="B739">
@@ -15807,7 +15811,7 @@
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A740" t="s">
+      <c r="A740" s="1" t="s">
         <v>737</v>
       </c>
       <c r="B740">
@@ -15824,7 +15828,7 @@
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A741" t="s">
+      <c r="A741" s="1" t="s">
         <v>738</v>
       </c>
       <c r="B741">
@@ -15841,7 +15845,7 @@
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A742" t="s">
+      <c r="A742" s="1" t="s">
         <v>739</v>
       </c>
       <c r="B742">
@@ -15858,7 +15862,7 @@
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A743" t="s">
+      <c r="A743" s="1" t="s">
         <v>740</v>
       </c>
       <c r="B743">
@@ -15875,7 +15879,7 @@
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A744" t="s">
+      <c r="A744" s="1" t="s">
         <v>741</v>
       </c>
       <c r="B744">
@@ -15891,8 +15895,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A745" t="s">
+    <row r="745" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A745" s="1" t="s">
         <v>742</v>
       </c>
       <c r="B745">
@@ -15909,7 +15913,7 @@
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A746" t="s">
+      <c r="A746" s="1" t="s">
         <v>743</v>
       </c>
       <c r="B746">
@@ -15926,7 +15930,7 @@
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A747" t="s">
+      <c r="A747" s="1" t="s">
         <v>744</v>
       </c>
       <c r="B747">
@@ -15943,7 +15947,7 @@
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A748" t="s">
+      <c r="A748" s="1" t="s">
         <v>745</v>
       </c>
       <c r="B748">
@@ -15959,8 +15963,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A749" t="s">
+    <row r="749" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A749" s="1" t="s">
         <v>746</v>
       </c>
       <c r="B749">
@@ -15977,7 +15981,7 @@
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A750" t="s">
+      <c r="A750" s="1" t="s">
         <v>747</v>
       </c>
       <c r="B750">
@@ -15993,8 +15997,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A751" t="s">
+    <row r="751" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A751" s="1" t="s">
         <v>748</v>
       </c>
       <c r="B751">
@@ -16010,8 +16014,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A752" t="s">
+    <row r="752" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A752" s="1" t="s">
         <v>749</v>
       </c>
       <c r="B752">
@@ -16028,7 +16032,7 @@
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A753" t="s">
+      <c r="A753" s="1" t="s">
         <v>750</v>
       </c>
       <c r="B753">
@@ -16045,7 +16049,7 @@
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A754" t="s">
+      <c r="A754" s="1" t="s">
         <v>751</v>
       </c>
       <c r="B754">
@@ -16061,8 +16065,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A755" t="s">
+    <row r="755" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A755" s="1" t="s">
         <v>752</v>
       </c>
       <c r="B755">
@@ -16079,7 +16083,7 @@
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A756" t="s">
+      <c r="A756" s="1" t="s">
         <v>753</v>
       </c>
       <c r="B756">
@@ -16096,7 +16100,7 @@
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A757" t="s">
+      <c r="A757" s="1" t="s">
         <v>754</v>
       </c>
       <c r="B757">
@@ -16112,8 +16116,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A758" t="s">
+    <row r="758" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A758" s="1" t="s">
         <v>755</v>
       </c>
       <c r="B758">
@@ -16129,8 +16133,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A759" t="s">
+    <row r="759" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A759" s="1" t="s">
         <v>756</v>
       </c>
       <c r="B759">
@@ -16146,8 +16150,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A760" t="s">
+    <row r="760" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A760" s="1" t="s">
         <v>757</v>
       </c>
       <c r="B760">
@@ -16163,8 +16167,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A761" t="s">
+    <row r="761" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A761" s="1" t="s">
         <v>758</v>
       </c>
       <c r="B761">
@@ -16180,8 +16184,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A762" t="s">
+    <row r="762" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A762" s="1" t="s">
         <v>950</v>
       </c>
       <c r="B762">
@@ -16198,7 +16202,7 @@
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A763" t="s">
+      <c r="A763" s="1" t="s">
         <v>759</v>
       </c>
       <c r="B763">
@@ -16215,7 +16219,7 @@
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A764" t="s">
+      <c r="A764" s="1" t="s">
         <v>760</v>
       </c>
       <c r="B764">
@@ -16232,7 +16236,7 @@
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A765" t="s">
+      <c r="A765" s="1" t="s">
         <v>761</v>
       </c>
       <c r="B765">
@@ -16249,7 +16253,7 @@
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A766" t="s">
+      <c r="A766" s="1" t="s">
         <v>762</v>
       </c>
       <c r="B766">
@@ -16266,7 +16270,7 @@
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A767" t="s">
+      <c r="A767" s="1" t="s">
         <v>763</v>
       </c>
       <c r="B767">
@@ -16282,8 +16286,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A768" t="s">
+    <row r="768" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A768" s="1" t="s">
         <v>764</v>
       </c>
       <c r="B768">
@@ -16299,8 +16303,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A769" t="s">
+    <row r="769" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A769" s="1" t="s">
         <v>765</v>
       </c>
       <c r="B769">
@@ -16317,7 +16321,7 @@
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
+      <c r="A770" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B770">
@@ -16334,7 +16338,7 @@
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A771" t="s">
+      <c r="A771" s="1" t="s">
         <v>766</v>
       </c>
       <c r="B771">
@@ -16351,7 +16355,7 @@
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A772" t="s">
+      <c r="A772" s="1" t="s">
         <v>767</v>
       </c>
       <c r="B772">
@@ -16368,7 +16372,7 @@
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A773" t="s">
+      <c r="A773" s="1" t="s">
         <v>768</v>
       </c>
       <c r="B773">
@@ -16384,8 +16388,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A774" t="s">
+    <row r="774" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A774" s="1" t="s">
         <v>769</v>
       </c>
       <c r="B774">
@@ -16402,7 +16406,7 @@
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A775" t="s">
+      <c r="A775" s="1" t="s">
         <v>770</v>
       </c>
       <c r="B775">
@@ -16419,7 +16423,7 @@
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A776" t="s">
+      <c r="A776" s="1" t="s">
         <v>771</v>
       </c>
       <c r="B776">
@@ -16436,7 +16440,7 @@
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A777" t="s">
+      <c r="A777" s="1" t="s">
         <v>772</v>
       </c>
       <c r="B777">
@@ -16453,7 +16457,7 @@
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A778" t="s">
+      <c r="A778" s="1" t="s">
         <v>773</v>
       </c>
       <c r="B778">
@@ -16469,8 +16473,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A779" t="s">
+    <row r="779" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A779" s="1" t="s">
         <v>774</v>
       </c>
       <c r="B779">
@@ -16487,7 +16491,7 @@
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A780" t="s">
+      <c r="A780" s="1" t="s">
         <v>775</v>
       </c>
       <c r="B780">
@@ -16503,8 +16507,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A781" t="s">
+    <row r="781" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A781" s="1" t="s">
         <v>776</v>
       </c>
       <c r="B781">
@@ -16520,8 +16524,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A782" t="s">
+    <row r="782" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A782" s="1" t="s">
         <v>777</v>
       </c>
       <c r="B782">
@@ -16537,8 +16541,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A783" t="s">
+    <row r="783" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A783" s="1" t="s">
         <v>778</v>
       </c>
       <c r="B783">
@@ -16554,8 +16558,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A784" t="s">
+    <row r="784" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A784" s="1" t="s">
         <v>779</v>
       </c>
       <c r="B784">
@@ -16572,7 +16576,7 @@
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A785" t="s">
+      <c r="A785" s="1" t="s">
         <v>780</v>
       </c>
       <c r="B785">
@@ -16588,8 +16592,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A786" t="s">
+    <row r="786" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A786" s="1" t="s">
         <v>781</v>
       </c>
       <c r="B786">
@@ -16605,8 +16609,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A787" t="s">
+    <row r="787" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A787" s="1" t="s">
         <v>782</v>
       </c>
       <c r="B787">
@@ -16622,8 +16626,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A788" t="s">
+    <row r="788" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A788" s="1" t="s">
         <v>783</v>
       </c>
       <c r="B788">
@@ -16639,8 +16643,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
+    <row r="789" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A789" s="1" t="s">
         <v>784</v>
       </c>
       <c r="B789">
@@ -16657,7 +16661,7 @@
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A790" t="s">
+      <c r="A790" s="1" t="s">
         <v>785</v>
       </c>
       <c r="B790">
@@ -16673,8 +16677,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A791" t="s">
+    <row r="791" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A791" s="1" t="s">
         <v>786</v>
       </c>
       <c r="B791">
@@ -16691,7 +16695,7 @@
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A792" t="s">
+      <c r="A792" s="1" t="s">
         <v>787</v>
       </c>
       <c r="B792">
@@ -16707,8 +16711,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A793" t="s">
+    <row r="793" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A793" s="1" t="s">
         <v>788</v>
       </c>
       <c r="B793">
@@ -16725,7 +16729,7 @@
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A794" t="s">
+      <c r="A794" s="1" t="s">
         <v>789</v>
       </c>
       <c r="B794">
@@ -16742,7 +16746,7 @@
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A795" t="s">
+      <c r="A795" s="1" t="s">
         <v>790</v>
       </c>
       <c r="B795">
@@ -16758,8 +16762,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A796" t="s">
+    <row r="796" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A796" s="1" t="s">
         <v>791</v>
       </c>
       <c r="B796">
@@ -16775,8 +16779,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A797" t="s">
+    <row r="797" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A797" s="1" t="s">
         <v>792</v>
       </c>
       <c r="B797">
@@ -16793,7 +16797,7 @@
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A798" t="s">
+      <c r="A798" s="1" t="s">
         <v>793</v>
       </c>
       <c r="B798">
@@ -16809,8 +16813,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A799" t="s">
+    <row r="799" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A799" s="1" t="s">
         <v>794</v>
       </c>
       <c r="B799">
@@ -16827,7 +16831,7 @@
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A800" t="s">
+      <c r="A800" s="1" t="s">
         <v>795</v>
       </c>
       <c r="B800">
@@ -16843,8 +16847,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A801" t="s">
+    <row r="801" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A801" s="1" t="s">
         <v>796</v>
       </c>
       <c r="B801">
@@ -16861,7 +16865,7 @@
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A802" t="s">
+      <c r="A802" s="1" t="s">
         <v>797</v>
       </c>
       <c r="B802">
@@ -16878,7 +16882,7 @@
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A803" t="s">
+      <c r="A803" s="1" t="s">
         <v>798</v>
       </c>
       <c r="B803">
@@ -16895,7 +16899,7 @@
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A804" t="s">
+      <c r="A804" s="1" t="s">
         <v>799</v>
       </c>
       <c r="B804">
@@ -16911,8 +16915,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A805" t="s">
+    <row r="805" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A805" s="1" t="s">
         <v>800</v>
       </c>
       <c r="B805">
@@ -16928,8 +16932,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A806" t="s">
+    <row r="806" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A806" s="1" t="s">
         <v>801</v>
       </c>
       <c r="B806">
@@ -16946,7 +16950,7 @@
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A807" t="s">
+      <c r="A807" s="1" t="s">
         <v>802</v>
       </c>
       <c r="B807">
@@ -16963,7 +16967,7 @@
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A808" t="s">
+      <c r="A808" s="1" t="s">
         <v>803</v>
       </c>
       <c r="B808">
@@ -16980,7 +16984,7 @@
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A809" t="s">
+      <c r="A809" s="1" t="s">
         <v>804</v>
       </c>
       <c r="B809">
@@ -16996,8 +17000,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A810" t="s">
+    <row r="810" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A810" s="1" t="s">
         <v>805</v>
       </c>
       <c r="B810">
@@ -17013,8 +17017,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A811" t="s">
+    <row r="811" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A811" s="1" t="s">
         <v>806</v>
       </c>
       <c r="B811">
@@ -17031,7 +17035,7 @@
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A812" t="s">
+      <c r="A812" s="1" t="s">
         <v>807</v>
       </c>
       <c r="B812">
@@ -17048,7 +17052,7 @@
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A813" t="s">
+      <c r="A813" s="1" t="s">
         <v>808</v>
       </c>
       <c r="B813">
@@ -17064,8 +17068,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A814" t="s">
+    <row r="814" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A814" s="1" t="s">
         <v>809</v>
       </c>
       <c r="B814">
@@ -17081,8 +17085,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A815" t="s">
+    <row r="815" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A815" s="1" t="s">
         <v>810</v>
       </c>
       <c r="B815">
@@ -17099,7 +17103,7 @@
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A816" t="s">
+      <c r="A816" s="1" t="s">
         <v>811</v>
       </c>
       <c r="B816">
@@ -17115,8 +17119,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A817" t="s">
+    <row r="817" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A817" s="1" t="s">
         <v>812</v>
       </c>
       <c r="B817">
@@ -17133,7 +17137,7 @@
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A818" t="s">
+      <c r="A818" s="1" t="s">
         <v>813</v>
       </c>
       <c r="B818">
@@ -17150,7 +17154,7 @@
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A819" t="s">
+      <c r="A819" s="1" t="s">
         <v>814</v>
       </c>
       <c r="B819">
@@ -17167,7 +17171,7 @@
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A820" t="s">
+      <c r="A820" s="1" t="s">
         <v>815</v>
       </c>
       <c r="B820">
@@ -17183,8 +17187,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A821" t="s">
+    <row r="821" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A821" s="1" t="s">
         <v>816</v>
       </c>
       <c r="B821">
@@ -17201,7 +17205,7 @@
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A822" t="s">
+      <c r="A822" s="1" t="s">
         <v>817</v>
       </c>
       <c r="B822">
@@ -17218,7 +17222,7 @@
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A823" t="s">
+      <c r="A823" s="1" t="s">
         <v>818</v>
       </c>
       <c r="B823">
@@ -17235,7 +17239,7 @@
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A824" t="s">
+      <c r="A824" s="1" t="s">
         <v>819</v>
       </c>
       <c r="B824">
@@ -17251,8 +17255,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A825" t="s">
+    <row r="825" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A825" s="1" t="s">
         <v>820</v>
       </c>
       <c r="B825">
@@ -17269,7 +17273,7 @@
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A826" t="s">
+      <c r="A826" s="1" t="s">
         <v>821</v>
       </c>
       <c r="B826">
@@ -17286,7 +17290,7 @@
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A827" t="s">
+      <c r="A827" s="1" t="s">
         <v>822</v>
       </c>
       <c r="B827">
@@ -17303,7 +17307,7 @@
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A828" t="s">
+      <c r="A828" s="1" t="s">
         <v>823</v>
       </c>
       <c r="B828">
@@ -17319,8 +17323,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A829" t="s">
+    <row r="829" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A829" s="1" t="s">
         <v>824</v>
       </c>
       <c r="B829">
@@ -17336,8 +17340,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A830" t="s">
+    <row r="830" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A830" s="1" t="s">
         <v>825</v>
       </c>
       <c r="B830">
@@ -17354,7 +17358,7 @@
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A831" t="s">
+      <c r="A831" s="1" t="s">
         <v>826</v>
       </c>
       <c r="B831">
@@ -17370,8 +17374,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A832" t="s">
+    <row r="832" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A832" s="1" t="s">
         <v>827</v>
       </c>
       <c r="B832">
@@ -17388,7 +17392,7 @@
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A833" t="s">
+      <c r="A833" s="1" t="s">
         <v>828</v>
       </c>
       <c r="B833">
@@ -17405,7 +17409,7 @@
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A834" t="s">
+      <c r="A834" s="1" t="s">
         <v>829</v>
       </c>
       <c r="B834">
@@ -17421,8 +17425,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A835" t="s">
+    <row r="835" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A835" s="1" t="s">
         <v>830</v>
       </c>
       <c r="B835">
@@ -17439,7 +17443,7 @@
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A836" t="s">
+      <c r="A836" s="1" t="s">
         <v>831</v>
       </c>
       <c r="B836">
@@ -17456,7 +17460,7 @@
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A837" t="s">
+      <c r="A837" s="1" t="s">
         <v>832</v>
       </c>
       <c r="B837">
@@ -17473,7 +17477,7 @@
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A838" t="s">
+      <c r="A838" s="1" t="s">
         <v>833</v>
       </c>
       <c r="B838">
@@ -17490,7 +17494,7 @@
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A839" t="s">
+      <c r="A839" s="1" t="s">
         <v>834</v>
       </c>
       <c r="B839">
@@ -17507,7 +17511,7 @@
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A840" t="s">
+      <c r="A840" s="1" t="s">
         <v>835</v>
       </c>
       <c r="B840">
@@ -17524,7 +17528,7 @@
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A841" t="s">
+      <c r="A841" s="1" t="s">
         <v>836</v>
       </c>
       <c r="B841">
@@ -17540,8 +17544,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A842" t="s">
+    <row r="842" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A842" s="1" t="s">
         <v>837</v>
       </c>
       <c r="B842">
@@ -17558,7 +17562,7 @@
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A843" t="s">
+      <c r="A843" s="1" t="s">
         <v>838</v>
       </c>
       <c r="B843">
@@ -17575,7 +17579,7 @@
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A844" t="s">
+      <c r="A844" s="1" t="s">
         <v>823</v>
       </c>
       <c r="B844">
@@ -17591,8 +17595,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A845" t="s">
+    <row r="845" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A845" s="1" t="s">
         <v>839</v>
       </c>
       <c r="B845">
@@ -17609,7 +17613,7 @@
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A846" t="s">
+      <c r="A846" s="1" t="s">
         <v>840</v>
       </c>
       <c r="B846">
@@ -17626,7 +17630,7 @@
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A847" t="s">
+      <c r="A847" s="1" t="s">
         <v>841</v>
       </c>
       <c r="B847">
@@ -17642,8 +17646,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A848" t="s">
+    <row r="848" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A848" s="1" t="s">
         <v>842</v>
       </c>
       <c r="B848">
@@ -17660,7 +17664,7 @@
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A849" t="s">
+      <c r="A849" s="1" t="s">
         <v>843</v>
       </c>
       <c r="B849">
@@ -17677,7 +17681,7 @@
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A850" t="s">
+      <c r="A850" s="1" t="s">
         <v>844</v>
       </c>
       <c r="B850">
@@ -17694,7 +17698,7 @@
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A851" t="s">
+      <c r="A851" s="1" t="s">
         <v>845</v>
       </c>
       <c r="B851">
@@ -17711,7 +17715,7 @@
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A852" t="s">
+      <c r="A852" s="1" t="s">
         <v>846</v>
       </c>
       <c r="B852">
@@ -17727,8 +17731,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A853" t="s">
+    <row r="853" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A853" s="1" t="s">
         <v>847</v>
       </c>
       <c r="B853">
@@ -17745,7 +17749,7 @@
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A854" t="s">
+      <c r="A854" s="1" t="s">
         <v>848</v>
       </c>
       <c r="B854">
@@ -17762,7 +17766,7 @@
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A855" t="s">
+      <c r="A855" s="1" t="s">
         <v>849</v>
       </c>
       <c r="B855">
@@ -17779,7 +17783,7 @@
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A856" t="s">
+      <c r="A856" s="1" t="s">
         <v>850</v>
       </c>
       <c r="B856">
@@ -17795,8 +17799,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A857" t="s">
+    <row r="857" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A857" s="1" t="s">
         <v>851</v>
       </c>
       <c r="B857">
@@ -17813,7 +17817,7 @@
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A858" t="s">
+      <c r="A858" s="1" t="s">
         <v>852</v>
       </c>
       <c r="B858">
@@ -17829,8 +17833,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A859" t="s">
+    <row r="859" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A859" s="1" t="s">
         <v>853</v>
       </c>
       <c r="B859">
@@ -17846,8 +17850,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A860" t="s">
+    <row r="860" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A860" s="1" t="s">
         <v>854</v>
       </c>
       <c r="B860">
@@ -17863,8 +17867,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A861" t="s">
+    <row r="861" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A861" s="1" t="s">
         <v>855</v>
       </c>
       <c r="B861">
@@ -17881,7 +17885,7 @@
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A862" t="s">
+      <c r="A862" s="1" t="s">
         <v>856</v>
       </c>
       <c r="B862">
@@ -17897,8 +17901,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A863" t="s">
+    <row r="863" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A863" s="1" t="s">
         <v>857</v>
       </c>
       <c r="B863">
@@ -17915,7 +17919,7 @@
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A864" t="s">
+      <c r="A864" s="1" t="s">
         <v>858</v>
       </c>
       <c r="B864">
@@ -17931,8 +17935,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A865" t="s">
+    <row r="865" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A865" s="1" t="s">
         <v>859</v>
       </c>
       <c r="B865">
@@ -17949,7 +17953,7 @@
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A866" t="s">
+      <c r="A866" s="1" t="s">
         <v>860</v>
       </c>
       <c r="B866">
@@ -17966,7 +17970,7 @@
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A867" t="s">
+      <c r="A867" s="1" t="s">
         <v>861</v>
       </c>
       <c r="B867">
@@ -17983,7 +17987,7 @@
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A868" t="s">
+      <c r="A868" s="1" t="s">
         <v>862</v>
       </c>
       <c r="B868">
@@ -17999,8 +18003,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A869" t="s">
+    <row r="869" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A869" s="1" t="s">
         <v>863</v>
       </c>
       <c r="B869">
@@ -18017,7 +18021,7 @@
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A870" t="s">
+      <c r="A870" s="1" t="s">
         <v>864</v>
       </c>
       <c r="B870">
@@ -18033,8 +18037,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A871" t="s">
+    <row r="871" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A871" s="1" t="s">
         <v>865</v>
       </c>
       <c r="B871">
@@ -18051,7 +18055,7 @@
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A872" t="s">
+      <c r="A872" s="1" t="s">
         <v>866</v>
       </c>
       <c r="B872">
@@ -18067,8 +18071,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A873" t="s">
+    <row r="873" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A873" s="1" t="s">
         <v>867</v>
       </c>
       <c r="B873">
@@ -18085,7 +18089,7 @@
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A874" t="s">
+      <c r="A874" s="1" t="s">
         <v>868</v>
       </c>
       <c r="B874">
@@ -18101,8 +18105,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A875" t="s">
+    <row r="875" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A875" s="1" t="s">
         <v>869</v>
       </c>
       <c r="B875">
@@ -18119,7 +18123,7 @@
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A876" t="s">
+      <c r="A876" s="1" t="s">
         <v>870</v>
       </c>
       <c r="B876">
@@ -18136,7 +18140,7 @@
       </c>
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A877" t="s">
+      <c r="A877" s="1" t="s">
         <v>870</v>
       </c>
       <c r="B877">
@@ -18152,8 +18156,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A878" t="s">
+    <row r="878" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A878" s="1" t="s">
         <v>871</v>
       </c>
       <c r="B878">
@@ -18169,8 +18173,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A879" t="s">
+    <row r="879" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A879" s="1" t="s">
         <v>872</v>
       </c>
       <c r="B879">
@@ -18187,7 +18191,7 @@
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A880" t="s">
+      <c r="A880" s="1" t="s">
         <v>873</v>
       </c>
       <c r="B880">
@@ -18204,7 +18208,7 @@
       </c>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A881" t="s">
+      <c r="A881" s="1" t="s">
         <v>874</v>
       </c>
       <c r="B881">
@@ -18221,7 +18225,7 @@
       </c>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A882" t="s">
+      <c r="A882" s="1" t="s">
         <v>875</v>
       </c>
       <c r="B882">
@@ -18238,7 +18242,7 @@
       </c>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A883" t="s">
+      <c r="A883" s="1" t="s">
         <v>876</v>
       </c>
       <c r="B883">
@@ -18254,8 +18258,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A884" t="s">
+    <row r="884" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A884" s="1" t="s">
         <v>877</v>
       </c>
       <c r="B884">
@@ -18272,7 +18276,7 @@
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A885" t="s">
+      <c r="A885" s="1" t="s">
         <v>878</v>
       </c>
       <c r="B885">
@@ -18289,7 +18293,7 @@
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A886" t="s">
+      <c r="A886" s="1" t="s">
         <v>879</v>
       </c>
       <c r="B886">
@@ -18306,7 +18310,7 @@
       </c>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A887" t="s">
+      <c r="A887" s="1" t="s">
         <v>880</v>
       </c>
       <c r="B887">
@@ -18322,8 +18326,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A888" t="s">
+    <row r="888" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A888" s="1" t="s">
         <v>881</v>
       </c>
       <c r="B888">
@@ -18340,7 +18344,7 @@
       </c>
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A889" t="s">
+      <c r="A889" s="1" t="s">
         <v>882</v>
       </c>
       <c r="B889">
@@ -18356,8 +18360,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A890" t="s">
+    <row r="890" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A890" s="1" t="s">
         <v>883</v>
       </c>
       <c r="B890">
@@ -18374,7 +18378,7 @@
       </c>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A891" t="s">
+      <c r="A891" s="1" t="s">
         <v>884</v>
       </c>
       <c r="B891">
@@ -18390,8 +18394,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A892" t="s">
+    <row r="892" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A892" s="1" t="s">
         <v>885</v>
       </c>
       <c r="B892">
@@ -18407,8 +18411,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A893" t="s">
+    <row r="893" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A893" s="1" t="s">
         <v>886</v>
       </c>
       <c r="B893">
@@ -18424,8 +18428,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A894" t="s">
+    <row r="894" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A894" s="1" t="s">
         <v>887</v>
       </c>
       <c r="B894">
@@ -18441,8 +18445,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A895" t="s">
+    <row r="895" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A895" s="1" t="s">
         <v>888</v>
       </c>
       <c r="B895">
@@ -18459,7 +18463,7 @@
       </c>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A896" t="s">
+      <c r="A896" s="1" t="s">
         <v>889</v>
       </c>
       <c r="B896">
@@ -18476,7 +18480,7 @@
       </c>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A897" t="s">
+      <c r="A897" s="1" t="s">
         <v>890</v>
       </c>
       <c r="B897">
@@ -18493,7 +18497,7 @@
       </c>
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A898" t="s">
+      <c r="A898" s="1" t="s">
         <v>891</v>
       </c>
       <c r="B898">
@@ -18509,8 +18513,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A899" t="s">
+    <row r="899" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A899" s="1" t="s">
         <v>892</v>
       </c>
       <c r="B899">
@@ -18526,8 +18530,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A900" t="s">
+    <row r="900" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A900" s="1" t="s">
         <v>893</v>
       </c>
       <c r="B900">
@@ -18543,8 +18547,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A901" t="s">
+    <row r="901" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A901" s="1" t="s">
         <v>894</v>
       </c>
       <c r="B901">
@@ -18561,7 +18565,7 @@
       </c>
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A902" t="s">
+      <c r="A902" s="1" t="s">
         <v>895</v>
       </c>
       <c r="B902">
@@ -18578,7 +18582,7 @@
       </c>
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A903" t="s">
+      <c r="A903" s="1" t="s">
         <v>896</v>
       </c>
       <c r="B903">
@@ -18595,7 +18599,7 @@
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A904" t="s">
+      <c r="A904" s="1" t="s">
         <v>897</v>
       </c>
       <c r="B904">
@@ -18612,7 +18616,7 @@
       </c>
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A905" t="s">
+      <c r="A905" s="1" t="s">
         <v>898</v>
       </c>
       <c r="B905">
@@ -18628,8 +18632,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A906" t="s">
+    <row r="906" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A906" s="1" t="s">
         <v>899</v>
       </c>
       <c r="B906">
@@ -18646,7 +18650,7 @@
       </c>
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A907" t="s">
+      <c r="A907" s="1" t="s">
         <v>900</v>
       </c>
       <c r="B907">
@@ -18663,7 +18667,7 @@
       </c>
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A908" t="s">
+      <c r="A908" s="1" t="s">
         <v>901</v>
       </c>
       <c r="B908">
@@ -18680,7 +18684,7 @@
       </c>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A909" t="s">
+      <c r="A909" s="1" t="s">
         <v>902</v>
       </c>
       <c r="B909">
@@ -18696,8 +18700,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A910" t="s">
+    <row r="910" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A910" s="1" t="s">
         <v>903</v>
       </c>
       <c r="B910">
@@ -18713,8 +18717,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A911" t="s">
+    <row r="911" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A911" s="1" t="s">
         <v>904</v>
       </c>
       <c r="B911">
@@ -18731,7 +18735,7 @@
       </c>
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A912" t="s">
+      <c r="A912" s="1" t="s">
         <v>905</v>
       </c>
       <c r="B912">
@@ -18747,8 +18751,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A913" t="s">
+    <row r="913" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A913" s="1" t="s">
         <v>906</v>
       </c>
       <c r="B913">
@@ -18764,8 +18768,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A914" t="s">
+    <row r="914" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A914" s="1" t="s">
         <v>907</v>
       </c>
       <c r="B914">
@@ -18782,7 +18786,7 @@
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A915" t="s">
+      <c r="A915" s="1" t="s">
         <v>908</v>
       </c>
       <c r="B915">
@@ -18798,8 +18802,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A916" t="s">
+    <row r="916" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A916" s="1" t="s">
         <v>909</v>
       </c>
       <c r="B916">
@@ -18816,7 +18820,7 @@
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A917" t="s">
+      <c r="A917" s="1" t="s">
         <v>910</v>
       </c>
       <c r="B917">
@@ -18833,7 +18837,7 @@
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A918" t="s">
+      <c r="A918" s="1" t="s">
         <v>911</v>
       </c>
       <c r="B918">
@@ -18849,8 +18853,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A919" t="s">
+    <row r="919" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A919" s="1" t="s">
         <v>912</v>
       </c>
       <c r="B919">
@@ -18867,7 +18871,7 @@
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A920" t="s">
+      <c r="A920" s="1" t="s">
         <v>913</v>
       </c>
       <c r="B920">
@@ -18883,8 +18887,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A921" t="s">
+    <row r="921" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A921" s="1" t="s">
         <v>914</v>
       </c>
       <c r="B921">
@@ -18900,8 +18904,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A922" t="s">
+    <row r="922" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A922" s="1" t="s">
         <v>915</v>
       </c>
       <c r="B922">
@@ -18917,8 +18921,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A923" t="s">
+    <row r="923" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A923" s="1" t="s">
         <v>916</v>
       </c>
       <c r="B923">
@@ -18934,8 +18938,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A924" t="s">
+    <row r="924" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A924" s="1" t="s">
         <v>917</v>
       </c>
       <c r="B924">
@@ -18951,8 +18955,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A925" t="s">
+    <row r="925" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A925" s="1" t="s">
         <v>918</v>
       </c>
       <c r="B925">
@@ -18968,8 +18972,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A926" t="s">
+    <row r="926" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A926" s="1" t="s">
         <v>919</v>
       </c>
       <c r="B926">
@@ -18986,7 +18990,7 @@
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A927" t="s">
+      <c r="A927" s="1" t="s">
         <v>920</v>
       </c>
       <c r="B927">
@@ -19002,8 +19006,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A928" t="s">
+    <row r="928" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A928" s="1" t="s">
         <v>921</v>
       </c>
       <c r="B928">
@@ -19019,8 +19023,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A929" t="s">
+    <row r="929" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A929" s="1" t="s">
         <v>922</v>
       </c>
       <c r="B929">
@@ -19037,7 +19041,7 @@
       </c>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A930" t="s">
+      <c r="A930" s="1" t="s">
         <v>923</v>
       </c>
       <c r="B930">
@@ -19054,7 +19058,7 @@
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A931" t="s">
+      <c r="A931" s="1" t="s">
         <v>924</v>
       </c>
       <c r="B931">
@@ -19071,7 +19075,7 @@
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A932" t="s">
+      <c r="A932" s="1" t="s">
         <v>925</v>
       </c>
       <c r="B932">
@@ -19088,7 +19092,7 @@
       </c>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A933" t="s">
+      <c r="A933" s="1" t="s">
         <v>926</v>
       </c>
       <c r="B933">
@@ -19104,8 +19108,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A934" t="s">
+    <row r="934" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A934" s="1" t="s">
         <v>927</v>
       </c>
       <c r="B934">
@@ -19121,8 +19125,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A935" t="s">
+    <row r="935" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A935" s="1" t="s">
         <v>928</v>
       </c>
       <c r="B935">
@@ -19138,8 +19142,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A936" t="s">
+    <row r="936" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A936" s="1" t="s">
         <v>929</v>
       </c>
       <c r="B936">
@@ -19155,8 +19159,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A937" t="s">
+    <row r="937" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A937" s="1" t="s">
         <v>930</v>
       </c>
       <c r="B937">
@@ -19173,7 +19177,7 @@
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A938" t="s">
+      <c r="A938" s="1" t="s">
         <v>931</v>
       </c>
       <c r="B938">
@@ -19190,7 +19194,7 @@
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A939" t="s">
+      <c r="A939" s="1" t="s">
         <v>932</v>
       </c>
       <c r="B939">
@@ -19207,7 +19211,7 @@
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A940" t="s">
+      <c r="A940" s="1" t="s">
         <v>933</v>
       </c>
       <c r="B940">
@@ -19224,7 +19228,7 @@
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A941" t="s">
+      <c r="A941" s="1" t="s">
         <v>934</v>
       </c>
       <c r="B941">
@@ -19241,7 +19245,7 @@
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A942" t="s">
+      <c r="A942" s="1" t="s">
         <v>935</v>
       </c>
       <c r="B942">
@@ -19258,7 +19262,7 @@
       </c>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A943" t="s">
+      <c r="A943" s="1" t="s">
         <v>936</v>
       </c>
       <c r="B943">
@@ -19275,7 +19279,7 @@
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A944" t="s">
+      <c r="A944" s="1" t="s">
         <v>937</v>
       </c>
       <c r="B944">
@@ -19291,8 +19295,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A945" t="s">
+    <row r="945" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A945" s="1" t="s">
         <v>938</v>
       </c>
       <c r="B945">
@@ -19309,7 +19313,7 @@
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A946" t="s">
+      <c r="A946" s="1" t="s">
         <v>939</v>
       </c>
       <c r="B946">
@@ -19326,7 +19330,7 @@
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A947" t="s">
+      <c r="A947" s="1" t="s">
         <v>940</v>
       </c>
       <c r="B947">
@@ -19343,7 +19347,7 @@
       </c>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A948" t="s">
+      <c r="A948" s="1" t="s">
         <v>941</v>
       </c>
       <c r="B948">
@@ -19359,8 +19363,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A949" t="s">
+    <row r="949" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A949" s="1" t="s">
         <v>942</v>
       </c>
       <c r="B949">
@@ -19376,8 +19380,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A950" t="s">
+    <row r="950" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A950" s="1" t="s">
         <v>943</v>
       </c>
       <c r="B950">
@@ -19393,8 +19397,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A951" t="s">
+    <row r="951" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A951" s="1" t="s">
         <v>944</v>
       </c>
       <c r="B951">
@@ -19410,8 +19414,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A952" t="s">
+    <row r="952" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A952" s="1" t="s">
         <v>945</v>
       </c>
       <c r="B952">
@@ -19428,7 +19432,7 @@
       </c>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A953" t="s">
+      <c r="A953" s="1" t="s">
         <v>946</v>
       </c>
       <c r="B953">
@@ -19444,8 +19448,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A954" t="s">
+    <row r="954" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A954" s="1" t="s">
         <v>947</v>
       </c>
       <c r="B954">
@@ -19461,8 +19465,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A955" t="s">
+    <row r="955" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A955" s="1" t="s">
         <v>948</v>
       </c>
       <c r="B955">
@@ -19478,8 +19482,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A956" t="s">
+    <row r="956" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A956" s="1" t="s">
         <v>949</v>
       </c>
       <c r="B956">
